--- a/excel/b_ner_bigram_probs.xlsx
+++ b/excel/b_ner_bigram_probs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,105 +436,100 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B-ORG</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>B-ORG</t>
+          <t>I-ORG</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>I-ORG</t>
+          <t>B-DATE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>B-DATE</t>
+          <t>I-DATE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>I-DATE</t>
+          <t>B-CARDINAL</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>B-CARDINAL</t>
+          <t>I-CARDINAL</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>I-CARDINAL</t>
+          <t>B-NORP</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>B-NORP</t>
+          <t>B-PERCENT</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>B-PERCENT</t>
+          <t>I-PERCENT</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>I-PERCENT</t>
+          <t>B-PRODUCT</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>B-PRODUCT</t>
+          <t>B-PERSON</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>B-PERSON</t>
+          <t>B-LOC</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>B-LOC</t>
+          <t>I-LOC</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>I-LOC</t>
+          <t>B-TIME</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>B-TIME</t>
+          <t>I-TIME</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>I-TIME</t>
+          <t>I-NORP</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>I-NORP</t>
+          <t>B-QUANTITY</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>B-QUANTITY</t>
+          <t>I-QUANTITY</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>I-QUANTITY</t>
+          <t>B-GPE</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>B-GPE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>I-PERSON</t>
         </is>
@@ -543,53 +538,53 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B-ORG</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7915592783505154</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01320876288659794</v>
+        <v>0.01909307875894988</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.01193317422434368</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007731958762886598</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.02863961813842482</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02319587628865979</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003221649484536082</v>
+        <v>0.03102625298329355</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01610824742268041</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0009664948453608248</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003221649484536082</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00193298969072165</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="P2" t="n">
-        <v>0.001610824742268041</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -598,32 +593,29 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001288659793814433</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0006443298969072165</v>
-      </c>
-      <c r="V2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>B-ORG</t>
+          <t>I-ORG</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00902061855670103</v>
+        <v>0.007159904534606206</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.05727923627684964</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002577319587628866</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -641,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002899484536082474</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -674,32 +666,29 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>I-ORG</t>
+          <t>B-DATE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.002255154639175258</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007731958762886598</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.03579952267303103</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.007159904534606206</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -720,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0003221649484536082</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -741,44 +730,41 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>B-DATE</t>
+          <t>I-DATE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002899484536082474</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.009546539379474941</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.03341288782816229</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004832474226804124</v>
+        <v>0.01431980906921241</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -787,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -805,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -814,53 +800,50 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>I-DATE</t>
+          <t>B-CARDINAL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.004510309278350515</v>
+        <v>0.01670644391408115</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.01431980906921241</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004510309278350515</v>
+        <v>0.06443914081145585</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.01670644391408115</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.007159904534606206</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.03818615751789976</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0003221649484536082</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -875,50 +858,47 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>B-CARDINAL</t>
+          <t>I-CARDINAL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02061855670103093</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.01670644391408115</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002255154639175258</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0006443298969072165</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -954,20 +934,17 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>I-CARDINAL</t>
+          <t>B-NORP</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002255154639175258</v>
+        <v>0.007159904534606206</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -979,16 +956,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.009546539379474941</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002255154639175258</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -997,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1012,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1024,20 +1001,17 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>B-NORP</t>
+          <t>B-PERCENT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003221649484536082</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1061,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.1408114558472554</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1085,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0006443298969072165</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1094,20 +1068,17 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>B-PERCENT</t>
+          <t>I-PERCENT</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.0405727923627685</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1119,22 +1090,22 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.03102625298329355</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.05250596658711217</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.03818615751789976</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01900773195876288</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1146,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.009546539379474941</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1164,32 +1135,29 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>I-PERCENT</t>
+          <t>B-PRODUCT</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01771907216494845</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001288659793814433</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1204,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.005154639175257732</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1234,32 +1202,29 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>B-PRODUCT</t>
+          <t>B-PERSON</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0009664948453608248</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1268,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1277,10 +1242,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1304,20 +1269,17 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
+        <v>0.009546539379474941</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>B-PERSON</t>
+          <t>B-LOC</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.002255154639175258</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1329,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003221649484536082</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1347,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1375,25 +1337,22 @@
       </c>
       <c r="U13" t="n">
         <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.001288659793814433</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>B-LOC</t>
+          <t>I-LOC</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.001288659793814433</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1426,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0006443298969072165</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1444,20 +1403,17 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>I-LOC</t>
+          <t>B-TIME</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0006443298969072165</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1499,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.01193317422434368</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1514,20 +1470,17 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>B-TIME</t>
+          <t>I-TIME</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1548,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.007159904534606206</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1569,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.01670644391408115</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.001610824742268041</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1584,20 +1537,17 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>I-TIME</t>
+          <t>I-NORP</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001610824742268041</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1609,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1642,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.002255154639175258</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1654,20 +1604,17 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>I-NORP</t>
+          <t>B-QUANTITY</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0006443298969072165</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1715,25 +1662,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0003221649484536082</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>0.009546539379474941</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>B-QUANTITY</t>
+          <t>I-QUANTITY</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1758,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1767,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1785,29 +1729,26 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.001288659793814433</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>I-QUANTITY</t>
+          <t>B-GPE</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001288659793814433</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1825,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1864,20 +1805,17 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>B-GPE</t>
+          <t>I-PERSON</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0006443298969072165</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1889,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1910,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1934,79 +1872,6 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>I-PERSON</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.001288659793814433</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
         <v>0</v>
       </c>
     </row>
